--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,20 +469,20 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46249</v>
+        <v>45792</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -495,20 +495,20 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46980</v>
+        <v>46249</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>47253</v>
+        <v>46522</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>47710</v>
+        <v>46522</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>48441</v>
+        <v>46980</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -547,20 +547,20 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>48714</v>
+        <v>46980</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>49444</v>
+        <v>47253</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -573,20 +573,20 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>51363</v>
+        <v>47253</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>53097</v>
+        <v>47710</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -599,20 +599,20 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>55015</v>
+        <v>47710</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>56749</v>
+        <v>48441</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -625,14 +625,196 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>48441</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>48714</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>48714</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>49444</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>49444</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>58668</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,14 +482,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46249</v>
+        <v>45792</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
@@ -498,82 +498,82 @@
         <v>46249</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:05:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46980</v>
+        <v>46522</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46980</v>
+        <v>46522</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:05:55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>47253</v>
+        <v>46522</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>47253</v>
+        <v>46980</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -586,33 +586,33 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>47710</v>
+        <v>46980</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>47710</v>
+        <v>46980</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:05:55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>48441</v>
+        <v>47253</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>48441</v>
+        <v>47253</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -638,20 +638,20 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>48714</v>
+        <v>47253</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>48714</v>
+        <v>47710</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -664,111 +664,111 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>49444</v>
+        <v>47710</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>49444</v>
+        <v>47710</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>51363</v>
+        <v>48441</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:05:55</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>51363</v>
+        <v>48441</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>53097</v>
+        <v>48441</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>53097</v>
+        <v>48714</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>55015</v>
+        <v>48714</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:05:55</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>55015</v>
+        <v>48714</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>56749</v>
+        <v>49444</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>56749</v>
+        <v>49444</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -794,27 +794,209 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>58668</v>
+        <v>49444</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>58668</v>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:06:27</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,540 +463,176 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45792</v>
+        <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45792</v>
+        <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:27</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46249</v>
+        <v>46980</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46249</v>
+        <v>47253</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46249</v>
+        <v>47710</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:27</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46522</v>
+        <v>48441</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:27</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46522</v>
+        <v>48714</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46522</v>
+        <v>49444</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46980</v>
+        <v>51363</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46980</v>
+        <v>53097</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:27</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46980</v>
+        <v>55015</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>47253</v>
+        <v>56749</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:05:55</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>47253</v>
+        <v>58668</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>47253</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>47710</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>47710</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>47710</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>48441</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>48441</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>48441</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>48714</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>48714</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>48714</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>49444</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>49444</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>49444</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>51363</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>51363</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>51363</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>53097</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>53097</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>53097</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>55015</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>55015</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>55015</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>56749</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>56749</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>56749</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>58668</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>58668</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>58668</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:06:27</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,20 +469,20 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46249</v>
+        <v>45792</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -495,20 +495,20 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46980</v>
+        <v>46249</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>47253</v>
+        <v>46522</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>47710</v>
+        <v>46522</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>48441</v>
+        <v>46980</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -547,20 +547,20 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>48714</v>
+        <v>46980</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>49444</v>
+        <v>47253</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -573,20 +573,20 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>51363</v>
+        <v>47253</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>53097</v>
+        <v>47710</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -599,20 +599,20 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>55015</v>
+        <v>47710</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>56749</v>
+        <v>48441</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -625,14 +625,196 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>48441</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>48714</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>48714</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>49444</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>49444</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>58668</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,14 +482,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46249</v>
+        <v>45792</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
@@ -498,82 +498,82 @@
         <v>46249</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46980</v>
+        <v>46522</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46980</v>
+        <v>46522</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>47253</v>
+        <v>46522</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>47253</v>
+        <v>46980</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -586,33 +586,33 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>47710</v>
+        <v>46980</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>47710</v>
+        <v>46980</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>48441</v>
+        <v>47253</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>48441</v>
+        <v>47253</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -638,20 +638,20 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>48714</v>
+        <v>47253</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>48714</v>
+        <v>47710</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -664,111 +664,111 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>49444</v>
+        <v>47710</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>49444</v>
+        <v>47710</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>51363</v>
+        <v>48441</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>51363</v>
+        <v>48441</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>53097</v>
+        <v>48441</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>53097</v>
+        <v>48714</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>55015</v>
+        <v>48714</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:12:50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>55015</v>
+        <v>48714</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:02</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>56749</v>
+        <v>49444</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>56749</v>
+        <v>49444</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -794,27 +794,209 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>58668</v>
+        <v>49444</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>51363</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>53097</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>55015</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>56749</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>58668</v>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>58668</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-04-04 13:13:12</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,540 +463,176 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45792</v>
+        <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45792</v>
+        <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:12</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46249</v>
+        <v>46980</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46249</v>
+        <v>47253</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46249</v>
+        <v>47710</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:12</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46522</v>
+        <v>48441</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:12</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46522</v>
+        <v>48714</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46522</v>
+        <v>49444</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46980</v>
+        <v>51363</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46980</v>
+        <v>53097</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:12</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46980</v>
+        <v>55015</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>47253</v>
+        <v>56749</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:12:50</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>47253</v>
+        <v>58668</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>47253</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>47710</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>47710</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>47710</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>48441</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>48441</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>48441</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>48714</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>48714</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>48714</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>49444</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>49444</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>49444</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>51363</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>51363</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>51363</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>53097</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>53097</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>53097</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>55015</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>55015</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>55015</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>56749</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>56749</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>56749</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>58668</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:12:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>58668</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>58668</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:13:12</t>
+          <t>2025-04-04 13:17:06</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:17:06</t>
+          <t>2025-04-04 13:22:10</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:10</t>
+          <t>2025-04-04 13:22:18</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -459,11 +459,11 @@
         <v>45792</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -498,11 +498,11 @@
         <v>46980</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         <v>47253</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -524,11 +524,11 @@
         <v>47710</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -537,11 +537,11 @@
         <v>48441</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -550,11 +550,11 @@
         <v>48714</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -563,11 +563,11 @@
         <v>49444</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -576,11 +576,11 @@
         <v>51363</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -589,11 +589,11 @@
         <v>53097</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -602,11 +602,11 @@
         <v>55015</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -615,11 +615,11 @@
         <v>56749</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>
@@ -628,11 +628,11 @@
         <v>58668</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:18</t>
+          <t>2025-04-04 13:22:34</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -459,11 +459,11 @@
         <v>45792</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -498,11 +498,11 @@
         <v>46980</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         <v>47253</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -524,11 +524,11 @@
         <v>47710</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -537,11 +537,11 @@
         <v>48441</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -550,11 +550,11 @@
         <v>48714</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -563,11 +563,11 @@
         <v>49444</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -576,11 +576,11 @@
         <v>51363</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -589,11 +589,11 @@
         <v>53097</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -602,11 +602,11 @@
         <v>55015</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -615,11 +615,11 @@
         <v>56749</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>
@@ -628,11 +628,11 @@
         <v>58668</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:22:34</t>
+          <t>2025-04-04 13:23:06</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:23:06</t>
+          <t>2025-04-04 13:26:25</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -459,11 +459,11 @@
         <v>45792</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:25</t>
+          <t>2025-04-04 13:26:35</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -459,11 +459,11 @@
         <v>45792</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:35</t>
+          <t>2025-04-04 13:26:47</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -459,11 +459,11 @@
         <v>45792</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -498,11 +498,11 @@
         <v>46980</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         <v>47253</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -524,11 +524,11 @@
         <v>47710</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -537,11 +537,11 @@
         <v>48441</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -550,11 +550,11 @@
         <v>48714</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -563,11 +563,11 @@
         <v>49444</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:47</t>
+          <t>2025-04-04 13:26:56</t>
         </is>
       </c>
     </row>

--- a/historico_taxas.xlsx
+++ b/historico_taxas.xlsx
@@ -459,11 +459,11 @@
         <v>45792</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>46249</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -485,11 +485,11 @@
         <v>46522</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -498,11 +498,11 @@
         <v>46980</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         <v>47253</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -524,11 +524,11 @@
         <v>47710</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -537,11 +537,11 @@
         <v>48441</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -550,11 +550,11 @@
         <v>48714</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -563,11 +563,11 @@
         <v>49444</v>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-04 13:26:56</t>
+          <t>2025-04-04 14:29:21</t>
         </is>
       </c>
     </row>
